--- a/biology/Botanique/Œillet_de_Montpellier/Œillet_de_Montpellier.xlsx
+++ b/biology/Botanique/Œillet_de_Montpellier/Œillet_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus hyssopifolius subsp. hyssopifolius, Dianthus monspessulanus
 L'Œillet de Montpellier, Dianthus hyssopifolius subsp. hyssopifolius, est une sous-espèce de plantes herbacées de la famille des Caryophyllaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur de 20–50 cm. Tiges glabres, arrondies, rameuses au sommet ; les feuilles sont linéaires et acuminées, à 3-5 nervures ; les fleurs sont roses ou blanchâtres, assez grandes, odorantes, solitaires, en panicule dichotome ; les pétales sont contigus, laciniés jusqu'au milieu en lanières linéaires, à partie non divisée ovale. Fruit : capsule cylindrique.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus hyssopifolius subsp. hyssopifolius - Œillet de Montpellier
 Dianthus hyssopifolius subsp. gallicus (Pers.) M.Laínz &amp; Muñoz Garm. - Œillet de France ou Œillet des dunes.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du niveau de la mer (dunes), pelouses, prés secs, forêts, rochers et jusqu'à 2 000 m d'altitude notamment dans les Pyrénées[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du niveau de la mer (dunes), pelouses, prés secs, forêts, rochers et jusqu'à 2 000 m d'altitude notamment dans les Pyrénées.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe occidentale et méridionale, notamment Espagne et France. En France: Jura, Alpes ; Forez, Auvergne, Haut-Limousin ; Cévennes, Corbières, Pyrénées.
 			Œillet de Montpellier
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_Montpellier</t>
+          <t>Œillet_de_Montpellier</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dianthus alpestris Hoppe &amp; Sternb.
 Dianthus monspessulanus L</t>
